--- a/Data/Input/TestData.xlsx
+++ b/Data/Input/TestData.xlsx
@@ -455,13 +455,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
     <col min="2" max="2" width="21.21875" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">

--- a/Data/Input/TestData.xlsx
+++ b/Data/Input/TestData.xlsx
@@ -456,13 +456,13 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="35.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="26.88671875" customWidth="1"/>
   </cols>
